--- a/py/tests/new_struct_sim_experiments/7_symbols/results/intra_n_7_symbols_results.xlsx
+++ b/py/tests/new_struct_sim_experiments/7_symbols/results/intra_n_7_symbols_results.xlsx
@@ -7257,17 +7257,87 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1869768832"/>
-        <c:axId val="1869725184"/>
+        <c:axId val="-670616144"/>
+        <c:axId val="-670363728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1869768832"/>
+        <c:axId val="-670616144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7305,7 +7375,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1869725184"/>
+        <c:crossAx val="-670363728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7313,7 +7383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1869725184"/>
+        <c:axId val="-670363728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7333,7 +7403,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Average similarity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -7363,7 +7490,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1869768832"/>
+        <c:crossAx val="-670616144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7375,6 +7502,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -7811,17 +7970,87 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="1815971904"/>
-        <c:axId val="1815973680"/>
+        <c:axId val="-670580624"/>
+        <c:axId val="-670577232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1815971904"/>
+        <c:axId val="-670580624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7859,7 +8088,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1815973680"/>
+        <c:crossAx val="-670577232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7867,7 +8096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1815973680"/>
+        <c:axId val="-670577232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7887,7 +8116,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Variance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -7917,7 +8202,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1815971904"/>
+        <c:crossAx val="-670580624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7929,6 +8214,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -7981,6 +8298,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Iterations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -8365,17 +8707,87 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1816034800"/>
-        <c:axId val="1867032464"/>
+        <c:axId val="-670553760"/>
+        <c:axId val="-670550368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1816034800"/>
+        <c:axId val="-670553760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8413,7 +8825,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1867032464"/>
+        <c:crossAx val="-670550368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8421,7 +8833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1867032464"/>
+        <c:axId val="-670550368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8441,7 +8853,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Average iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -8471,7 +8939,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1816034800"/>
+        <c:crossAx val="-670553760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8483,6 +8951,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -10125,15 +10625,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10154,16 +10654,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10186,14 +10686,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10504,8 +11004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:KF104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G52" workbookViewId="0">
-      <selection activeCell="D55" activeCellId="1" sqref="A55:A104 D55:D104"/>
+    <sheetView tabSelected="1" topLeftCell="G49" workbookViewId="0">
+      <selection activeCell="W84" sqref="W84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
